--- a/biology/Médecine/Antoine_Vallot/Antoine_Vallot.xlsx
+++ b/biology/Médecine/Antoine_Vallot/Antoine_Vallot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Vallot est un médecin français, né à Arles en 1594 ou 1595 et est mort le 9 août 1671 au Jardin Royal à Paris. Il a été Premier médecin ou Archiâtre du roi Louis XIV. 
 Antoine Vallot avait succédé à François Vautier, ou Vaultier, comme premier médecin du roi. Antoine d'Aquin lui succéda en 1672, après huit mois d'intrigues.
@@ -514,13 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médecin à Paris
-Vallot était docteur de la Faculté de médecine de Montpellier. Très actif et hardi dans la pratique de la médecine, il vint s'établir à Paris et fut rapidement un médecin recherché des grands personnages de l'époque.
+          <t>Médecin à Paris</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vallot était docteur de la Faculté de médecine de Montpellier. Très actif et hardi dans la pratique de la médecine, il vint s'établir à Paris et fut rapidement un médecin recherché des grands personnages de l'époque.
 Quand François Vautier (ou Vaultier), né lui aussi à Arles et médecin de Mazarin, sortit de la Bastille, Vallot se lia d'amitié avec lui. Grâce à Vautier, Vallot devint le médecin de la reine Anne d'Autriche.
 Ce qui marque le début de sa carrière auprès du roi Louis XIV est le traitement de la maladie (la petite vérole) qu'il eut en 1647. Vautier, alors premier médecin du roi, l'appela en consultation. Il imposa ses traitements contre les avis des autres médecins et réussit à guérir le roi. Il fut alors considéré comme le plus habile médecin de la cour.
 Quand Vautier (ou Vaultier) mourut le 4 juillet 1652, il fut nommé pour le remplacer dans la charge de premier médecin du roi.
-Premier médecin du roi
-Vallot raconte dans le Journal de la santé du roi sa nomination comme premier médecin du roi : « Le dimanche, huitième de juillet, mil six cent cinquante deux, le roi étant à Saint-Denis avec son armée m'a fait la grâce, après la mort de M. Vaultier, de me recevoir en la charge de premier médecin, m'ayant fait appeler deux jours auparavant de Paris, pour servir sa Majesté en cette dignité. Mes lettres furent expédiées le huit du même mois, et le lendemain j'ai prêté serment de fidélité entre les mains de Sa dite Majesté, avec protestation d'employer toutes les lumières que Dieu m'a données, toutes les expériences que je me suis acquises par un long travail et une continuelle application à la médecine l'espace de vingt-huit ans, et ma propre vie pour la conservation d'une vie si précieuse. Ayant reçu cet honneur par la grâce de Dieu, par le choix et agrément de Leurs Majestés, et par l'entremise de Monseigneur le cardinal de Mazarin, qui leur a représenté la réputation que je m'étais acquise en ma profession et les bons et agréables services que j'avais si utilement rendus au roi au traitement de sa petite vérole, en l'année mil six cent quarante sept. Je me suis entièrement consacré à la connaissance du tempérament et des inclinations particulières du roi, ayant pris une forte et utile résolution m'employer tous les moments de ma vie pour me rendre capable de prévenir tous les accidents dont il pourrait être menacé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antoine_Vallot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Vallot</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premier médecin du roi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vallot raconte dans le Journal de la santé du roi sa nomination comme premier médecin du roi : « Le dimanche, huitième de juillet, mil six cent cinquante deux, le roi étant à Saint-Denis avec son armée m'a fait la grâce, après la mort de M. Vaultier, de me recevoir en la charge de premier médecin, m'ayant fait appeler deux jours auparavant de Paris, pour servir sa Majesté en cette dignité. Mes lettres furent expédiées le huit du même mois, et le lendemain j'ai prêté serment de fidélité entre les mains de Sa dite Majesté, avec protestation d'employer toutes les lumières que Dieu m'a données, toutes les expériences que je me suis acquises par un long travail et une continuelle application à la médecine l'espace de vingt-huit ans, et ma propre vie pour la conservation d'une vie si précieuse. Ayant reçu cet honneur par la grâce de Dieu, par le choix et agrément de Leurs Majestés, et par l'entremise de Monseigneur le cardinal de Mazarin, qui leur a représenté la réputation que je m'étais acquise en ma profession et les bons et agréables services que j'avais si utilement rendus au roi au traitement de sa petite vérole, en l'année mil six cent quarante sept. Je me suis entièrement consacré à la connaissance du tempérament et des inclinations particulières du roi, ayant pris une forte et utile résolution m'employer tous les moments de ma vie pour me rendre capable de prévenir tous les accidents dont il pourrait être menacé ».
 Gui Patin a accusé Antoine Vallot d'avoir obtenu cette nomination en payant 3 000 livres au cardinal Mazarin.
 Le 19 juillet 1652, Lettres patentes de Louis XIV faisant don d'une somme de 12 000 livres de pension annuelle à son premier médecin à prendre sur l'Épargne.
 De cette date, Vallot ne cessa d'entourer le roi de ses soins attentifs et minutieux.
@@ -548,8 +600,43 @@
 Vallot, de constitution délicate, a de fréquents accès d'asthme accompagnés de crachements de sang.
 Sa mort lui a valu comme oraison funèbre de son impitoyable ennemi Gui Patin dans une lettre à Falconet : « Vallot est au lit, fort pressé de son asthme; peu s'en fallut qu'il n'étouffât avant-hier au soir, mais il fut délivré par une copieuse saignée ; il a reçu l'extrême-onction, c'est pour lui rendre les genoux plus souples pour le grand voyage qui lui reste à faire. Il n'a été qu'un charlatan en ce monde mais je ne sais ce qu'il fera dans l'autre, s'il n'y vient cireur de noir à noircir, ou de quelqu'autre métier où on puisse gagner beaucoup d'argent, qu'il a toujours extrêmement aimé. Pour son honneur, il est mort au Jardin Royal, le 9 août, à six heures de l'après-midi ; on ne l'a point vu mourir, et on l'a trouvé mort en son lit. »
 La fortune d'Antoine Vallot était en effet importante à sa mort. Aucun de ses fils ne fut médecin : l'aîné fut conseiller au Grand Conseil, le deuxième, évêque de Nevers (28 août 1667-3 septembre 1705), le troisième, chanoine à Notre-Dame de Paris, le quatrième, capitaine aux gardes. Ses trois filles furent religieuses.
-Surintendant du Jardin du roi
-Comme premier médecin du roi, Vallot était responsable du Jardin du roi, à Paris. Mais il se trouvait qu'à la mort de Vaultier, l'imbroglio de la charge de surintendant du Jardin du roi n'était pas encore réglé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antoine_Vallot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Vallot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surintendant du Jardin du roi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme premier médecin du roi, Vallot était responsable du Jardin du roi, à Paris. Mais il se trouvait qu'à la mort de Vaultier, l'imbroglio de la charge de surintendant du Jardin du roi n'était pas encore réglé.
 En effet, à la mort du roi Louis XIII, son médecin, Charles Bouvard était surintendant du Jardin royal. Son crédit avait permis de faire nommer son gendre, Jacques Cousinot, comme premier médecin de Louis XIV, mais il avait réservé la surintendance du Jardin du roi pour son fils par lettre du 18 décembre 1643. Bouvard père et fils occupaient encore la fonction de surintendant quand Vautier (ou Vaultier) devint premier médecin. Deux arrêts du Conseil du roi, le 14 juillet 1646 et le 28 mars 1647, donnèrent raison à Vaultier, mais Bouvard père et fils restèrent en place. Ce ne fut qu'en 1658, après la mort de Charles Bouvard, que son fils laissa sa place de surintendant du Jardin royal.
 Antoine Vallot devenu surintendant du Jardin royal entreprit alors d'en augmenter les collections et d'attirer des scientifiques et praticiens les plus compétents.
 Il confia la place de démonstrateur en botanique à Vespasien Robin, et à la mort de celui-ci survenue en 1663, il la donna à Denis Joncquet, un des médecins les plus instruits dans la science des plantes à l'époque.
@@ -559,37 +646,74 @@
 Joncquet a écrit l'épître au lecteur de ce catalogue dans lequel il explique tout ce qui a été fait et tout ce que le premier médecin propose de faire pour faire du Jardin royal le plus utile et le premier jardin du monde. Fagon a ajouté un poème en vers latins faisant la louange de Vallot, le restaurateur du Jardin royal.
 Il confia le poste de démonstrateur de chimie au Jardin royal à Nicaise (ou Nicolas) Le Febre (ou Le Fèvre). En 1660, il fait paraître un Traité de la chymie qu'il dédicaça à Antoine Vallot. En effet Vallot, au contraire de la Faculté de Médecine de Paris et de Gui Patin, était favorable aux remèdes chimiques. Nicolas Le Fèvre étant protestant, il préféra suivre le roi Charles II en Angleterre et devint membre en 1663 de la Royal Society.
 À la mort de Denis Joncquet, survenue le 6 septembre 1671, Fagon devint démonstrateur de botanique. Il était déjà démonstrateur de chimie, et depuis 1668, médecin ordinaire de la maison du roi.
-Famille et descendance
-Aucun de ses fils ne fut médecin : l'aîné fut conseiller au Grand Conseil, le deuxième, évêque de Nevers (28 août 1667-3 septembre 1705), le troisième, chanoine à Notre-Dame de Paris, le quatrième, capitaine aux gardes. Ses trois filles furent religieuses.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Antoine_Vallot</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Antoine_Vallot</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille et descendance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucun de ses fils ne fut médecin : l'aîné fut conseiller au Grand Conseil, le deuxième, évêque de Nevers (28 août 1667-3 septembre 1705), le troisième, chanoine à Notre-Dame de Paris, le quatrième, capitaine aux gardes. Ses trois filles furent religieuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antoine_Vallot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Vallot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Vallot, d'Aquin, Fagon - Journal de santé du roi Louis XIV de l'année 1647 à l'année 1711, avec introduction, notes, réflexions critiques et pièces justificatives par J. A. Le Roi - Paris - Auguste Durand, éditeur - 1862  (BNF Gallica)</t>
         </is>
